--- a/containers.xlsx
+++ b/containers.xlsx
@@ -2,17 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Weizen\Documents\GitHub\Data_Structure_with_Cplusplus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2715" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="General" sheetId="1" r:id="rId1"/>
+    <sheet name="Container adaptor" sheetId="2" r:id="rId2"/>
+    <sheet name="Constructor" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="109">
   <si>
     <t>size()</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,10 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>front()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -61,43 +59,330 @@
     <t>Modifiers</t>
   </si>
   <si>
-    <t>push_back()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pop_back()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>insert()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>erase()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>swap()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>clear()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>reverse(size_type n)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#include</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Iterator</t>
+    <t>value_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iterator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const_iterator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reverse_iterator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const_reverse_iterator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size_type(or size_t)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unordered_map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unordered_set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forward_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>begin()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rbegin()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rend()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop_front()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iterators</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member types</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reverse()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserve(size_type n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapped_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resize(size_type n)
+resize(size_type n, const value_type&amp; val)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[] (size_type n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assign(InputIterator first, InputIterator last)
+assign(size_type n, const value_type&amp; val)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>push_back(const value_type&amp; val)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>erase(iterator position)
+erase (iterator first, iterator last)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swap(SameContainer&amp; x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Container&lt;value_type&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Container&lt;value_type&gt;(size_type n, const value_type&amp; val)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>push_front(const value_type&amp; val)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert(iterator position, const value_type&amp; val)
+insert(iterator position, size_type n, const value_type&amp; val)
+insert(iterator position, InputIterator first, InputIterator last)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>splice(iterator position, list&amp; x)
+splice(iterator position, list&amp; x, iterator i)
+splice(iterator position, list&amp; x, iterator first, iterator last)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove(const value_type&amp; val)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙向鏈結</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單向鏈結</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙邊結尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可變大小陣列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陣列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隨機存取快速，但插入刪除元素效率低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入刪除元素效率高，但隨機存取不效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支援隨機存取與插入刪除元素，但消耗內存大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Principle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隨機存取快速，於容器大小已知且不會改變時使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member functions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empty()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deque(default), vector or list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>front()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>push(const value_type&amp; val)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deque(default) or list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -109,70 +394,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>member type</t>
-  </si>
-  <si>
-    <t>value_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iterator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>const_iterator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reverse_iterator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>const_reverse_iterator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>size_type(or size_t)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deque</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vector</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unordered_map</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unordered_set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>forward_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>++</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>--</t>
+    <t>priority_queue</t>
+  </si>
+  <si>
+    <t>vector(default) or deque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有序排列，從最大的先取出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Container&lt;value_type, mapped_type&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Container&lt;value_type&gt;(InputIterator first, InputIterator last)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Container&lt;value_type, mapped_type&gt;(InputIterator first, InputIterator last)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Container&lt;value_type&gt;(const Container&amp; x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Container&lt;value_type, mapped_type&gt;(const Container&amp; x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merge(list&amp; x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort()
+sort(Compare comp)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find(const key_type&amp; k)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find(const value_type&amp; val)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count(const key_type&amp; k)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lower_bound(const value_type&amp; val)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upper_bound(const value_type&amp; val)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -180,7 +474,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -193,6 +487,14 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -219,11 +521,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -506,181 +817,775 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="48.375" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
     <col min="10" max="10" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="99" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="33" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="37" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="B37" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" t="s">
         <v>33</v>
       </c>
-      <c r="K1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>102</v>
+      </c>
+      <c r="F40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="33" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>105</v>
+      </c>
+      <c r="I43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>104</v>
+      </c>
+      <c r="K44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>106</v>
+      </c>
+      <c r="I45" t="s">
+        <v>32</v>
+      </c>
+      <c r="K45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>107</v>
+      </c>
+      <c r="I46" t="s">
+        <v>32</v>
+      </c>
+      <c r="K46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>108</v>
+      </c>
+      <c r="I47" t="s">
+        <v>31</v>
+      </c>
+      <c r="K47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
+      <c r="I50" t="s">
+        <v>32</v>
+      </c>
+      <c r="K50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>42</v>
+      </c>
+      <c r="K51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" t="s">
+        <v>32</v>
+      </c>
+      <c r="I52" t="s">
+        <v>32</v>
+      </c>
+      <c r="K52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" t="s">
+        <v>33</v>
+      </c>
+      <c r="G53" t="s">
+        <v>33</v>
+      </c>
+      <c r="I53" t="s">
+        <v>33</v>
+      </c>
+      <c r="K53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" t="s">
+        <v>32</v>
+      </c>
+      <c r="I54" t="s">
+        <v>32</v>
+      </c>
+      <c r="K54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" t="s">
+        <v>32</v>
+      </c>
+      <c r="K55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>32</v>
+      </c>
+      <c r="F56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" t="s">
+        <v>32</v>
+      </c>
+      <c r="I56" t="s">
+        <v>32</v>
+      </c>
+      <c r="K56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>27</v>
+      <c r="D57" t="s">
+        <v>31</v>
+      </c>
+      <c r="F57" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" t="s">
+        <v>31</v>
+      </c>
+      <c r="I57" t="s">
+        <v>33</v>
+      </c>
+      <c r="K57" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -688,4 +1593,323 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/containers.xlsx
+++ b/containers.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Weizen\Documents\GitHub\Data_Structure_with_Cplusplus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Weizen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="110">
   <si>
     <t>size()</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -467,6 +467,10 @@
   </si>
   <si>
     <t>upper_bound(const value_type&amp; val)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Container&lt;value_type&gt;(size_type n)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -820,10 +824,10 @@
   <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I47" sqref="I47"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -888,7 +892,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="99" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="66" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -1600,7 +1604,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1725,9 +1729,6 @@
       <c r="B10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" t="s">
-        <v>80</v>
-      </c>
       <c r="D10" t="s">
         <v>83</v>
       </c>
@@ -1735,6 +1736,9 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>94</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
       </c>
       <c r="E11" t="s">
         <v>95</v>
@@ -1776,10 +1780,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1836,39 +1840,40 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>53</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
@@ -1880,21 +1885,30 @@
         <v>52</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="4"/>
+        <v>53</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>97</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>31</v>
@@ -1902,9 +1916,17 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>101</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>31</v>
       </c>
     </row>
